--- a/results/real_table_fixed_maximumodds.xlsx
+++ b/results/real_table_fixed_maximumodds.xlsx
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.04</v>
+        <v>-0.0396</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02</v>
+        <v>-0.0195</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02</v>
+        <v>0.0201</v>
       </c>
       <c r="F5" t="inlineStr"/>
     </row>
